--- a/test-remedial.xlsx
+++ b/test-remedial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopia\OneDrive\Documents\projects\python projects\Nischitha\remedial-class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5B0BA-9FBF-45F7-91AD-71553B4F11FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9AFAD-9C68-4B12-9FAA-0FCB9AD643F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{6BE0869E-516E-48CB-8398-A4BA0B629EB4}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C64F9-1326-4BDB-8913-04ED2ADFC2B6}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -723,19 +723,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>1</v>
